--- a/NZSO2014/competitors.xlsx
+++ b/NZSO2014/competitors.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\VivaDance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\VivaDance\NZSO2014\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Amatuer Improvisation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="113">
   <si>
     <t>Salsa Couples Amateur Semi Final Choreography</t>
   </si>
@@ -285,13 +286,91 @@
   </si>
   <si>
     <t>sonia herns</t>
+  </si>
+  <si>
+    <t>Appearance, Connection &amp; Synchronicity</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Timing &amp; Musicality</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>27_Nina Rycroft and Andy Hutsby_Viva Dance</t>
+  </si>
+  <si>
+    <t>28_Natalie Fester and Alberto Juarez Grifaldo_Total Xtreme Dance Company</t>
+  </si>
+  <si>
+    <t>45_Esther Meenken and Corwin Ruegg_Salsa Latina</t>
+  </si>
+  <si>
+    <t>JUDGE HEAD</t>
+  </si>
+  <si>
+    <t>JUDGE 1</t>
+  </si>
+  <si>
+    <t>JUDGE 2</t>
+  </si>
+  <si>
+    <t>JUDGE 3</t>
+  </si>
+  <si>
+    <t>JUDGE 4</t>
+  </si>
+  <si>
+    <t>JUDGE 5</t>
+  </si>
+  <si>
+    <t>Semi_pro  improvisation Salsa Couples (1st round couples 32,35,36 second round couples 37, 26 on the floor together)</t>
+  </si>
+  <si>
+    <t>Amateur improvisation Salsa Couples (all 3 couple on the floor together)</t>
+  </si>
+  <si>
+    <t>32_Juan Sandoval and Nicola Taylor_Total Xtreme NZ</t>
+  </si>
+  <si>
+    <t>35_Miriam Schnider and Antonio Cerda_Salsa Con Coco</t>
+  </si>
+  <si>
+    <t>36_Scott Suen and Mia Yatiswara_Salsa Latina</t>
+  </si>
+  <si>
+    <t>Originality of Choreography</t>
+  </si>
+  <si>
+    <t>37_Wayne Lapwood and Satra Gradiska_Salsa Con Coco</t>
+  </si>
+  <si>
+    <t>26_Kate Treweek and Lee Cook_Aveo Entertainment</t>
+  </si>
+  <si>
+    <t>Amateur improvisation Bachata Couples ( all couples on the floor together)</t>
+  </si>
+  <si>
+    <t>39_Yan Zhou and Max Gallagher_EDP and LFF Dance</t>
+  </si>
+  <si>
+    <t>40_Natalie Fester and Alberto Juarez Grifaldo_Total Xtreme Dance Company</t>
+  </si>
+  <si>
+    <t>41_Shenay Taylor and Kahu Leary_Aveo Entertainment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +385,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -338,17 +425,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +755,7 @@
   </sheetPr>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L47" sqref="L47:L53"/>
     </sheetView>
   </sheetViews>
@@ -2251,4 +2372,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="L40" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F25:J25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>